--- a/db_init/reviews.xlsx
+++ b/db_init/reviews.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Coding\django-yolobuilds\.init\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdoolittle\Documents\Coding\yolo-builds\db_init\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DC4ADF-1AD2-480D-81E9-49A0D345C339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00FE967-1BC9-4B21-BB73-A317C5576EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="795" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23490" yWindow="3405" windowWidth="21600" windowHeight="11385" tabRatio="795" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="review_type" sheetId="1" r:id="rId1"/>
-    <sheet name="review_status" sheetId="3" r:id="rId2"/>
-    <sheet name="cycle_result" sheetId="2" r:id="rId3"/>
+    <sheet name="type" sheetId="1" r:id="rId1"/>
+    <sheet name="status" sheetId="6" r:id="rId2"/>
+    <sheet name="scope" sheetId="5" r:id="rId3"/>
+    <sheet name="result" sheetId="2" r:id="rId4"/>
+    <sheet name="cycle" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="98">
   <si>
     <t>review_type</t>
   </si>
@@ -33,69 +35,6 @@
     <t>days_cycle2</t>
   </si>
   <si>
-    <t>Bldg Full Review</t>
-  </si>
-  <si>
-    <t>Bldg Accessibility</t>
-  </si>
-  <si>
-    <t>Bldg Addressing</t>
-  </si>
-  <si>
-    <t>Bldg Ag Exempt</t>
-  </si>
-  <si>
-    <t>Bldg Architectural</t>
-  </si>
-  <si>
-    <t>Bldg Commercial Coach</t>
-  </si>
-  <si>
-    <t>Bldg Manufactured Home</t>
-  </si>
-  <si>
-    <t>Bldg Tiny-Home on Wheels</t>
-  </si>
-  <si>
-    <t>Bldg Demolition</t>
-  </si>
-  <si>
-    <t>Bldg Grading</t>
-  </si>
-  <si>
-    <t>Bldg Green/Energy</t>
-  </si>
-  <si>
-    <t>Bldg Electrical</t>
-  </si>
-  <si>
-    <t>Bldg Fire Alarms</t>
-  </si>
-  <si>
-    <t>Bldg Fire Sprinklers</t>
-  </si>
-  <si>
-    <t>Bldg Flood</t>
-  </si>
-  <si>
-    <t>Bldg Mechanical</t>
-  </si>
-  <si>
-    <t>Bldg Plumbing</t>
-  </si>
-  <si>
-    <t>Bldg Pool</t>
-  </si>
-  <si>
-    <t>Bldg Rapid</t>
-  </si>
-  <si>
-    <t>Bldg Structural (Conventional)</t>
-  </si>
-  <si>
-    <t>Bldg Structrual (Engineered)</t>
-  </si>
-  <si>
     <t>Code Enforcement</t>
   </si>
   <si>
@@ -177,9 +116,6 @@
     <t>Corrections Required</t>
   </si>
   <si>
-    <t>causes_review_status</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
@@ -187,6 +123,201 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>record</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>causes_status</t>
+  </si>
+  <si>
+    <t>scope</t>
+  </si>
+  <si>
+    <t>cycle_number</t>
+  </si>
+  <si>
+    <t>reviewer</t>
+  </si>
+  <si>
+    <t>completed_date</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>sent</t>
+  </si>
+  <si>
+    <t>days_until_due</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>days_allotted</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>Building</t>
+  </si>
+  <si>
+    <t>Full Review</t>
+  </si>
+  <si>
+    <t>Accessibility</t>
+  </si>
+  <si>
+    <t>Addressing</t>
+  </si>
+  <si>
+    <t>Ag Exempt</t>
+  </si>
+  <si>
+    <t>Architectural</t>
+  </si>
+  <si>
+    <t>Commercial Coach</t>
+  </si>
+  <si>
+    <t>Manufactured Home</t>
+  </si>
+  <si>
+    <t>Tiny-Home on Wheels</t>
+  </si>
+  <si>
+    <t>Demolition</t>
+  </si>
+  <si>
+    <t>Grading</t>
+  </si>
+  <si>
+    <t>Green/Energy</t>
+  </si>
+  <si>
+    <t>Electrical</t>
+  </si>
+  <si>
+    <t>Fire Alarms</t>
+  </si>
+  <si>
+    <t>Fire Sprinklers</t>
+  </si>
+  <si>
+    <t>Flood</t>
+  </si>
+  <si>
+    <t>Mechanical</t>
+  </si>
+  <si>
+    <t>Plumbing</t>
+  </si>
+  <si>
+    <t>Pool</t>
+  </si>
+  <si>
+    <t>Rapid</t>
+  </si>
+  <si>
+    <t>Structural (Conventional)</t>
+  </si>
+  <si>
+    <t>Structrual (Engineered)</t>
+  </si>
+  <si>
+    <t>School District</t>
+  </si>
+  <si>
+    <t>Air District</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Questionairre</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
 </sst>
 </file>
@@ -676,16 +807,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -732,7 +864,52 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="29">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -741,6 +918,12 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -783,10 +966,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D29" totalsRowShown="0">
-  <autoFilter ref="A1:D29" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+  <autoFilter ref="A1:E31" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="5">
     <tableColumn id="4" xr3:uid="{09D68A08-5E3D-4C75-9016-3D86CA4F8BE6}" name="id"/>
+    <tableColumn id="5" xr3:uid="{9EFDF161-0AF3-40A0-8E9C-46FF3D02ED3E}" name="group" dataDxfId="0"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="review_type"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="days_cycle1"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="days_cycle2"/>
@@ -796,32 +980,73 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table134" displayName="Table134" ref="A1:D5" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:D5" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C5">
-    <sortCondition ref="B1:B5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DB3E9EA8-F3FF-4AC9-B753-BCCF740CBD4F}" name="Table1347" displayName="Table1347" ref="A1:D5" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A1:D5" xr:uid="{DB3E9EA8-F3FF-4AC9-B753-BCCF740CBD4F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B5">
+    <sortCondition ref="A1:A5"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{2ACDF166-2699-4E21-AE6A-17E0DD61BBE5}" name="id" dataDxfId="1"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="status" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="description" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="color" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{FD248757-C480-45B3-8A8C-07AB46F7ECFB}" name="id" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{EC0D26E8-5EBC-4BFE-81D3-59F08DEB7114}" name="status" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{9ADFFF72-7D40-4E38-8D05-630757C31048}" name="description" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{084FED2D-7BE6-4BAA-B6FA-579FD9A2DFA3}" name="color" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table13" displayName="Table13" ref="A1:D6" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{298377E7-3E5E-4BB5-97C7-98454012E57F}" name="Table5" displayName="Table5" ref="A1:F24" totalsRowShown="0">
+  <autoFilter ref="A1:F24" xr:uid="{298377E7-3E5E-4BB5-97C7-98454012E57F}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{CB3485FC-5F74-4B66-950B-9BFDEA6D0532}" name="id"/>
+    <tableColumn id="2" xr3:uid="{40DAC445-75AB-4B40-856D-BD09DC49378D}" name="record"/>
+    <tableColumn id="3" xr3:uid="{3AC97AA3-3B7A-47BA-BFE2-4815BA3CCB6D}" name="type"/>
+    <tableColumn id="4" xr3:uid="{9A344759-1140-40F3-8E21-221A270B579F}" name="status"/>
+    <tableColumn id="5" xr3:uid="{E49C5E72-DB90-4D80-A27F-FC2BB04827C3}" name="notes"/>
+    <tableColumn id="6" xr3:uid="{02931B24-33D3-4B0E-9672-6187240FB182}" name="duration"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table13" displayName="Table13" ref="A1:D6" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="A1:D6" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D6">
     <sortCondition ref="B1:B6"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{866F9132-46F8-4622-B240-59E0DEB6C100}" name="id" dataDxfId="0"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="result" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="description" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="causes_review_status" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{866F9132-46F8-4622-B240-59E0DEB6C100}" name="id" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="result" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="description" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="causes_status" dataDxfId="17"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table134" displayName="Table134" ref="A1:N28" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+  <autoFilter ref="A1:N28" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C5">
+    <sortCondition ref="B1:B5"/>
+  </sortState>
+  <tableColumns count="14">
+    <tableColumn id="4" xr3:uid="{2ACDF166-2699-4E21-AE6A-17E0DD61BBE5}" name="id" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="record" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="scope" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="cycle_number" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{8BF6ED06-8076-44F5-A9E9-590B6384A7B4}" name="result" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{ABAA35A1-BE70-4ABE-83C7-2F7B7AAC0B03}" name="reviewer" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{A82A2DFD-4359-45A3-A14C-56DBE673FA08}" name="completed_date" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{7E16A690-C2E4-4C87-960C-DF2BA6A0CB41}" name="due" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{8DA44FF0-71BD-4EBA-913C-37A7031903F1}" name="sent" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{603A5625-0CBE-4605-89ED-E16693966FDA}" name="notes" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{F3489E75-BB73-4D6D-8E41-2F705498F9F1}" name="duration" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{27FCAF2C-C2D6-4E89-99FC-876A6451D77D}" name="days_until_due" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{BA6937B2-64EA-4962-AC8C-03A1C75D15CC}" name="age" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{8F5B8E51-F5D8-4D43-A1DA-F157387689BF}" name="days_allotted" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1124,421 +1349,545 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="25.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="1">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="B5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="1">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="1">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="1">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="1">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="1">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="1">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="1">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="1">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="1">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="1">
+        <v>10</v>
+      </c>
+      <c r="E17" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="1">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="1">
+        <v>10</v>
+      </c>
+      <c r="E19" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="1">
+        <v>10</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="1">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="1">
+        <v>10</v>
+      </c>
+      <c r="E23" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1">
+        <v>10</v>
+      </c>
+      <c r="E24" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1">
+        <v>10</v>
+      </c>
+      <c r="E25" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="1">
+        <v>10</v>
+      </c>
+      <c r="E26" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="1">
+        <v>10</v>
+      </c>
+      <c r="E27" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="1">
+        <v>10</v>
+      </c>
+      <c r="E28" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1">
+        <v>10</v>
+      </c>
+      <c r="E29" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="C31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13">
-        <v>10</v>
-      </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14">
-        <v>10</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15">
-        <v>10</v>
-      </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16">
-        <v>10</v>
-      </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17">
-        <v>10</v>
-      </c>
-      <c r="D17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18">
-        <v>10</v>
-      </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19">
-        <v>10</v>
-      </c>
-      <c r="D19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21">
-        <v>10</v>
-      </c>
-      <c r="D21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22">
-        <v>10</v>
-      </c>
-      <c r="D22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23">
-        <v>10</v>
-      </c>
-      <c r="D23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24">
-        <v>10</v>
-      </c>
-      <c r="D24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25">
-        <v>10</v>
-      </c>
-      <c r="D25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26">
-        <v>10</v>
-      </c>
-      <c r="D26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27">
-        <v>10</v>
-      </c>
-      <c r="D27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28">
-        <v>10</v>
-      </c>
-      <c r="D28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29">
-        <v>10</v>
-      </c>
-      <c r="D29">
+      <c r="D31" s="1">
+        <v>10</v>
+      </c>
+      <c r="E31" s="1">
         <v>5</v>
       </c>
     </row>
@@ -1552,89 +1901,89 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2651B0B1-6BF0-4BCD-8622-CC3D386D2AEE}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="23.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.21875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="2"/>
+    <col min="2" max="2" width="23.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>39</v>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>37</v>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>41</v>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>43</v>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1646,102 +1995,265 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608332AC-756D-4D91-949A-12BBC7E557AE}">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="23.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="2"/>
+    <col min="2" max="2" width="23.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>39</v>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+        <v>17</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>37</v>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>50</v>
+      <c r="B4" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>34</v>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>41</v>
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1750,4 +2262,217 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="2" customWidth="1"/>
+    <col min="4" max="14" width="19" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="8.85546875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>